--- a/Final Project/Data/Target/Falities.xlsx
+++ b/Final Project/Data/Target/Falities.xlsx
@@ -102,7 +102,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2128.0</v>
+        <v>1168.0</v>
       </c>
     </row>
     <row r="3">
@@ -113,7 +113,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1245.0</v>
+        <v>769.0</v>
       </c>
     </row>
     <row r="4">
